--- a/mySystem/mySystem/xls/PTV/13 SOP-MFG-305-R04A PTV生产台帐.xlsx
+++ b/mySystem/mySystem/xls/PTV/13 SOP-MFG-305-R04A PTV生产台帐.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2017年工作\2017-生产指令台账\ERP\305，PTV生产记录\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7500"/>
   </bookViews>
@@ -15,11 +10,11 @@
     <sheet name="生产日报PTV" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">生产日报PTV!$A$3:$I$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">生产日报PTV!$A$3:$H$5</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <r>
       <rPr>
@@ -66,10 +61,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>内包装袋</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>备注</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -95,54 +86,6 @@
   </si>
   <si>
     <t>生产班次</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>白班</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>夜班</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>关联生产指令</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>关联内包装记录</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>关联生产指令</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>会有两种以上规格</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -157,8 +100,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -238,7 +181,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -275,10 +218,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="hair">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="hair">
         <color indexed="64"/>
       </right>
       <top style="medium">
@@ -293,21 +236,6 @@
       <left style="hair">
         <color indexed="64"/>
       </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="medium">
         <color indexed="64"/>
@@ -327,19 +255,6 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -371,7 +286,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -384,19 +299,16 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -414,25 +326,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -441,7 +350,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -449,6 +358,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -591,7 +503,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -626,7 +538,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -803,80 +715,77 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C8" sqref="C8:D8"/>
       <selection pane="topRight" activeCell="C8" sqref="C8:D8"/>
       <selection pane="bottomLeft" activeCell="C8" sqref="C8:D8"/>
-      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="2" width="10.875" style="2" customWidth="1"/>
     <col min="3" max="3" width="11.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5" style="15" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="15.5" style="13" customWidth="1" outlineLevel="1"/>
     <col min="5" max="5" width="27.75" style="2" customWidth="1"/>
     <col min="6" max="6" width="14.875" style="1" customWidth="1"/>
     <col min="7" max="7" width="13.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.75" style="2" customWidth="1"/>
-    <col min="9" max="9" width="8.375" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="2"/>
+    <col min="8" max="8" width="8.375" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="20" t="s">
+    </row>
+    <row r="2" spans="1:8" ht="26.1" customHeight="1" thickBot="1">
+      <c r="A2" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+    </row>
+    <row r="3" spans="1:8" s="8" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A3" s="19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-    </row>
-    <row r="3" spans="1:9" s="9" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="23" t="s">
-        <v>11</v>
+      <c r="B3" s="21" t="s">
+        <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="22" t="s">
-        <v>10</v>
+      <c r="D3" s="20" t="s">
+        <v>9</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>1</v>
@@ -890,54 +799,40 @@
       <c r="H3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="8" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="4" spans="1:9" s="13" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10" t="s">
+    <row r="4" spans="1:8" s="12" customFormat="1" ht="21" customHeight="1">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="11"/>
+    </row>
+    <row r="5" spans="1:8" s="12" customFormat="1" ht="21" customHeight="1">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="11"/>
+    </row>
+    <row r="7" spans="1:8" ht="21.75" customHeight="1">
+      <c r="A7" s="22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="22" t="s">
         <v>12</v>
-      </c>
-      <c r="C4" s="11">
-        <v>1</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="12"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="H5" s="24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="24" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="24" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:I4"/>
   <mergeCells count="1">
-    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A2:H2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A3:B1048576">
